--- a/data/input/Anticipos.xlsx
+++ b/data/input/Anticipos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Descarga-SCT-Envio-Mails-Masivos\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\Anticipos-SCT-Tributaria\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6142A53-0653-47FC-AD8A-A674CFFC6A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B52240D-1E08-44D5-B59E-4452B3F10DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2DDC7D-5F36-4712-B1A3-13BCC9B15566}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6D2DDC7D-5F36-4712-B1A3-13BCC9B15566}"/>
   </bookViews>
   <sheets>
     <sheet name="Relevamiento" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Relevamiento!$A$1:$G$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Relevamiento!$A$1:$G$101</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -578,24 +578,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -664,7 +652,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -676,9 +664,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -688,9 +673,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,52 +680,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -764,9 +735,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -804,7 +775,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -910,7 +881,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1052,7 +1023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,26 +1031,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCC257C-1F33-4889-98F8-4CC7A838AC5B}">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="21" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="53.109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="14" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -1088,2230 +1059,2241 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>7</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>0</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>7</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="E5" s="12"/>
+      <c r="F5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="E7" s="12"/>
+      <c r="F7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="E8" s="12"/>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10">
         <v>4</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>5</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="E10" s="12"/>
+      <c r="F10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="10">
         <v>2</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="E11" s="12"/>
+      <c r="F11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="10">
         <v>2</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>9</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>5</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>7</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="E16" s="12"/>
+      <c r="F16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="10">
         <v>9</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="G17" s="10"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="12">
-        <v>8</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="G19" s="10">
+        <v>8</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>7</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>4</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>6</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="12" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>7</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="12">
+      <c r="E26" s="12"/>
+      <c r="F26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="G27" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="12" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="F31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="12">
+      <c r="E33" s="12"/>
+      <c r="F33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="12" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="10">
         <v>5</v>
       </c>
       <c r="H37"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-    </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="12">
+      <c r="E38" s="12"/>
+      <c r="F38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="10">
         <v>7</v>
       </c>
       <c r="H38"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="E40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="12" t="s">
+      <c r="E41" s="12"/>
+      <c r="F41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="12" t="s">
+      <c r="E42" s="12"/>
+      <c r="F42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="B43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="12" t="s">
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="12" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="13" t="s">
+      <c r="B45" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="12">
+      <c r="E45" s="12"/>
+      <c r="F45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14" t="s">
+      <c r="C46" s="11"/>
+      <c r="D46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="12" t="s">
+      <c r="E46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="10">
         <v>0</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="12" t="s">
+      <c r="E47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="10">
         <v>6</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+    <row r="48" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="13" t="s">
+      <c r="B48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="12" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="12">
+      <c r="F49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="10">
         <v>9</v>
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="13" t="s">
+      <c r="B50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="12">
+      <c r="E50" s="12"/>
+      <c r="F50" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+    <row r="51" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="13" t="s">
+      <c r="B51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="12" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="10">
         <v>4</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+    <row r="52" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="13" t="s">
+      <c r="B53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D53" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="12" t="s">
+      <c r="E53" s="12"/>
+      <c r="F53" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E54" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G54" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="13" t="s">
+      <c r="B55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D55" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="12" t="s">
+      <c r="E55" s="12"/>
+      <c r="F55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G55" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="13" t="s">
+      <c r="B56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D56" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="12">
+      <c r="E56" s="12"/>
+      <c r="F56" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="13" t="s">
+      <c r="B57" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D57" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="12" t="s">
+      <c r="E57" s="12"/>
+      <c r="F57" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G57" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="13" t="s">
+      <c r="B58" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D58" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="12" t="s">
+      <c r="E58" s="12"/>
+      <c r="F58" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G58" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="13" t="s">
+      <c r="B59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D59" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="12" t="s">
+      <c r="E59" s="12"/>
+      <c r="F59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" s="12">
+      <c r="E60" s="12"/>
+      <c r="F60" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="13" t="s">
+      <c r="B61" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D61" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="12">
+      <c r="E61" s="12"/>
+      <c r="F61" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="13" t="s">
+      <c r="B62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D62" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" s="12">
+      <c r="E62" s="12"/>
+      <c r="F62" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="13" t="s">
+      <c r="B63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D63" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" s="12">
+      <c r="E63" s="12"/>
+      <c r="F63" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="10">
         <v>0</v>
       </c>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="13" t="s">
+      <c r="B64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D64" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="12" t="s">
+      <c r="E64" s="12"/>
+      <c r="F64" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
+    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="13" t="s">
+      <c r="B65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D65" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="12" t="s">
+      <c r="E65" s="12"/>
+      <c r="F65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+    <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="13" t="s">
+      <c r="B66" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D66" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="12" t="s">
+      <c r="E66" s="12"/>
+      <c r="F66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G66" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
+    <row r="67" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="13" t="s">
+      <c r="B67" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D67" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="12" t="s">
+      <c r="E67" s="12"/>
+      <c r="F67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G67" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E68" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F68" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G68" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="12" t="s">
+      <c r="E69" s="12"/>
+      <c r="F69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+    <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="13" t="s">
+      <c r="B70" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D70" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="12" t="s">
+      <c r="E70" s="12"/>
+      <c r="F70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G70" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="13" t="s">
+      <c r="B71" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D71" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="12" t="s">
+      <c r="E71" s="12"/>
+      <c r="F71" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+    <row r="72" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="13" t="s">
+      <c r="B72" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D72" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" s="12">
+      <c r="E72" s="12"/>
+      <c r="F72" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="13" t="s">
+      <c r="B73" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D73" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" s="12">
+      <c r="E73" s="12"/>
+      <c r="F73" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B74" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14" t="s">
+      <c r="C74" s="11"/>
+      <c r="D74" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="F74" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G74" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="13" t="s">
+      <c r="B75" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D75" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="12" t="s">
+      <c r="E75" s="12"/>
+      <c r="F75" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G75" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B76" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14" t="s">
+      <c r="C76" s="11"/>
+      <c r="D76" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="12" t="s">
+      <c r="E76" s="12"/>
+      <c r="F76" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G76" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
+    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B77" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D77" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E76" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" s="12" t="s">
+      <c r="E77" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="G77" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="13" t="s">
+      <c r="B78" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D78" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" s="12">
+      <c r="E78" s="12"/>
+      <c r="F78" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="27" t="s">
+    <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="13" t="s">
+      <c r="B79" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D79" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" s="12">
+      <c r="E79" s="12"/>
+      <c r="F79" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="s">
+    <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="13" t="s">
+      <c r="B80" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D80" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" s="12">
+      <c r="E80" s="12"/>
+      <c r="F80" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
+    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D81" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F80" s="12" t="s">
+      <c r="E81" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="13" t="s">
+      <c r="B82" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D82" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="12">
+      <c r="E82" s="12"/>
+      <c r="F82" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="27" t="s">
+    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="13" t="s">
+      <c r="B83" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D83" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" s="12">
+      <c r="E83" s="12"/>
+      <c r="F83" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+    <row r="84" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="13" t="s">
+      <c r="B84" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D84" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="12" t="s">
+      <c r="E84" s="12"/>
+      <c r="F84" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
+    <row r="85" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="13" t="s">
+      <c r="B85" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D85" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="12" t="s">
+      <c r="E85" s="12"/>
+      <c r="F85" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+    <row r="86" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="13" t="s">
+      <c r="B86" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D86" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="12" t="s">
+      <c r="E86" s="12"/>
+      <c r="F86" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+    <row r="87" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="13" t="s">
+      <c r="B87" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D87" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="12" t="s">
+      <c r="E87" s="12"/>
+      <c r="F87" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+    <row r="88" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="13" t="s">
+      <c r="B88" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="12" t="s">
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
+    <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="13" t="s">
+      <c r="B89" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D89" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="12" t="s">
+      <c r="E89" s="12"/>
+      <c r="F89" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B90" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D90" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="14" t="s">
+      <c r="E90" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="G89" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="G90" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D92" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E92" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F92" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G92" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="13" t="s">
+      <c r="B93" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D93" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="12" t="s">
+      <c r="E93" s="12"/>
+      <c r="F93" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G93" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
+    <row r="94" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="13" t="s">
+      <c r="B94" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D94" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="12" t="s">
+      <c r="E94" s="12"/>
+      <c r="F94" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G94" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="13" t="s">
+      <c r="B95" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D95" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="12" t="s">
+      <c r="E95" s="12"/>
+      <c r="F95" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G95" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+    <row r="96" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="13" t="s">
+      <c r="B96" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D96" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="14"/>
-      <c r="F95" s="12" t="s">
+      <c r="E96" s="12"/>
+      <c r="F96" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G96" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+    <row r="97" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="13" t="s">
+      <c r="B97" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D97" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E96" s="14"/>
-      <c r="F96" s="12" t="s">
+      <c r="E97" s="12"/>
+      <c r="F97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G97" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+    <row r="98" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="13" t="s">
+      <c r="B98" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D98" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="12" t="s">
+      <c r="E98" s="12"/>
+      <c r="F98" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G98" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B99" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C99" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D99" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E99" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="12" t="s">
+      <c r="F99" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G99" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="13" t="s">
+      <c r="B100" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D100" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="14"/>
-      <c r="F99" s="12" t="s">
+      <c r="E100" s="12"/>
+      <c r="F100" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G100" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
+    <row r="101" spans="1:7" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="13" t="s">
+      <c r="B101" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D101" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="14"/>
-      <c r="F100" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="12">
+      <c r="E101" s="12"/>
+      <c r="F101" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="22"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="22"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="22"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="25"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="26"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="26"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="26"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="26"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="26"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="25"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="26"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="26"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="26"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="26"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="25"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="26"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="26"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="26"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G100" xr:uid="{581354B0-086D-4D4F-B764-E99CBE4D1530}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G100">
-    <sortCondition ref="A2:A100"/>
+  <autoFilter ref="A1:G101" xr:uid="{581354B0-086D-4D4F-B764-E99CBE4D1530}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G120">
+    <sortCondition ref="A1:A120"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3319,26 +3301,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9cc7b6a6-63fa-4276-a1f4-767d172628e5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ca2f6b1-28b8-4f99-8c6a-2c6c13636447">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100273DD359F800BB4FB0CD6F5CBCA81520" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="85dd47d7725c7d52027ffb2c86cb7d35">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ca2f6b1-28b8-4f99-8c6a-2c6c13636447" xmlns:ns3="9cc7b6a6-63fa-4276-a1f4-767d172628e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91aa0c7f451cf413fb3032b6bd045727" ns2:_="" ns3:_="">
     <xsd:import namespace="1ca2f6b1-28b8-4f99-8c6a-2c6c13636447"/>
@@ -3573,26 +3535,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D710BA-B2C4-4C92-84FD-C497A9621232}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9cc7b6a6-63fa-4276-a1f4-767d172628e5"/>
-    <ds:schemaRef ds:uri="1ca2f6b1-28b8-4f99-8c6a-2c6c13636447"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2FECDD2-784D-4975-9B79-0B37991E824F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9cc7b6a6-63fa-4276-a1f4-767d172628e5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ca2f6b1-28b8-4f99-8c6a-2c6c13636447">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DED0B90-DCB2-4697-A682-EDB4D6B2FA9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3609,4 +3572,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2FECDD2-784D-4975-9B79-0B37991E824F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D710BA-B2C4-4C92-84FD-C497A9621232}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9cc7b6a6-63fa-4276-a1f4-767d172628e5"/>
+    <ds:schemaRef ds:uri="1ca2f6b1-28b8-4f99-8c6a-2c6c13636447"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>